--- a/data/trans_orig/P17G-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P17G-Estudios-trans_orig.xlsx
@@ -791,19 +791,19 @@
         <v>6605</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2899</v>
+        <v>2910</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13240</v>
+        <v>12413</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01976503646358929</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008673593943081795</v>
+        <v>0.008708274319532659</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03961694867752912</v>
+        <v>0.03714265077303193</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3926</v>
+        <v>4610</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001834925186067027</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.007434616437934858</v>
+        <v>0.008729324712647089</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -833,19 +833,19 @@
         <v>7574</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3590</v>
+        <v>3684</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13469</v>
+        <v>14516</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008784169508730138</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004163407106944271</v>
+        <v>0.004272576331433649</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01562112260422332</v>
+        <v>0.01683442389113153</v>
       </c>
     </row>
     <row r="6">
@@ -862,19 +862,19 @@
         <v>4702</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1870</v>
+        <v>1769</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10498</v>
+        <v>10540</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01407124669877052</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005595503234821224</v>
+        <v>0.00529435679294078</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03141425575079305</v>
+        <v>0.03153841141245892</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8181</v>
+        <v>7288</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004417879524070749</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01549183786499365</v>
+        <v>0.01380056662075191</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -904,19 +904,19 @@
         <v>7035</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3169</v>
+        <v>3331</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14923</v>
+        <v>15307</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.008159273316615857</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003675046609028597</v>
+        <v>0.003863433369338752</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01730682322266777</v>
+        <v>0.01775259398225506</v>
       </c>
     </row>
     <row r="7">
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6705</v>
+        <v>6555</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005712530998107615</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02006495748386558</v>
+        <v>0.01961538344599726</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -954,19 +954,19 @@
         <v>7611</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3274</v>
+        <v>3140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16660</v>
+        <v>14829</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01441296305019066</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00619961562178563</v>
+        <v>0.0059454158784348</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03154968145593537</v>
+        <v>0.02808232862479164</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -975,19 +975,19 @@
         <v>9520</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4539</v>
+        <v>4101</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18105</v>
+        <v>17643</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01104090210160912</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005264624386712991</v>
+        <v>0.004756596083327924</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02099677761775168</v>
+        <v>0.02046128295596174</v>
       </c>
     </row>
     <row r="8">
@@ -1004,19 +1004,19 @@
         <v>320972</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>312470</v>
+        <v>312159</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>326804</v>
+        <v>326175</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9604511858395326</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9350100234414335</v>
+        <v>0.9340797707352085</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9779022207014157</v>
+        <v>0.9760207194341229</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>509</v>
@@ -1025,19 +1025,19 @@
         <v>517157</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>507225</v>
+        <v>509074</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>522089</v>
+        <v>522652</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9793342322396715</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9605256505850708</v>
+        <v>0.9640272713855543</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9886734163122489</v>
+        <v>0.9897401192038633</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>839</v>
@@ -1046,19 +1046,19 @@
         <v>838130</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>827498</v>
+        <v>826647</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>846732</v>
+        <v>847053</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9720156550730449</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9596854360226964</v>
+        <v>0.9586977048816333</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9819910985829199</v>
+        <v>0.982363753212915</v>
       </c>
     </row>
     <row r="9">
@@ -1197,19 +1197,19 @@
         <v>6576</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2665</v>
+        <v>2798</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12991</v>
+        <v>13415</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02632084083014803</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01066605152469757</v>
+        <v>0.01119892767613846</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05199694208647086</v>
+        <v>0.05369233643431733</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1218,19 +1218,19 @@
         <v>7057</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2991</v>
+        <v>3046</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14192</v>
+        <v>14765</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0174609607357997</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007399772134471593</v>
+        <v>0.007535936220856256</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03511520589810831</v>
+        <v>0.03653325092985423</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -1239,19 +1239,19 @@
         <v>13633</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7599</v>
+        <v>7895</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23323</v>
+        <v>22302</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02084573233879498</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01161990429505674</v>
+        <v>0.01207106763965443</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03566205654620442</v>
+        <v>0.03410112385724435</v>
       </c>
     </row>
     <row r="12">
@@ -1268,19 +1268,19 @@
         <v>11350</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5685</v>
+        <v>5718</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19998</v>
+        <v>19639</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04542604310681753</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02275177443214755</v>
+        <v>0.02288669508441712</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08003783592599835</v>
+        <v>0.07860312307197838</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -1289,19 +1289,19 @@
         <v>17948</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10998</v>
+        <v>10477</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28252</v>
+        <v>27329</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04440949292868863</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0272116095224733</v>
+        <v>0.02592308304873087</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06990440026494531</v>
+        <v>0.06762155888776837</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>28</v>
@@ -1310,19 +1310,19 @@
         <v>29298</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18794</v>
+        <v>19766</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>39626</v>
+        <v>41091</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04479784922011806</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02873675108171016</v>
+        <v>0.03022304969027948</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06058987758593098</v>
+        <v>0.06282953081007685</v>
       </c>
     </row>
     <row r="13">
@@ -1339,19 +1339,19 @@
         <v>9678</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4326</v>
+        <v>4926</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17406</v>
+        <v>17887</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03873595870742816</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01731256676354723</v>
+        <v>0.01971635859933385</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0696635245100278</v>
+        <v>0.07159182637054572</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1360,19 +1360,19 @@
         <v>7629</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2917</v>
+        <v>3553</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14801</v>
+        <v>15496</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01887651210492224</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007218135455030195</v>
+        <v>0.008790847211289601</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03662262283971601</v>
+        <v>0.03834257041221549</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1381,19 +1381,19 @@
         <v>17307</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10915</v>
+        <v>10355</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29293</v>
+        <v>27791</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02646348734561904</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0166896205758882</v>
+        <v>0.01583347450003304</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04479089321729776</v>
+        <v>0.04249418278907666</v>
       </c>
     </row>
     <row r="14">
@@ -1410,19 +1410,19 @@
         <v>222247</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>211779</v>
+        <v>211263</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>230814</v>
+        <v>230599</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8895171573556063</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.847622269854722</v>
+        <v>0.8455556559185607</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.923805916817741</v>
+        <v>0.9229468848634079</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>361</v>
@@ -1431,19 +1431,19 @@
         <v>371518</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>358369</v>
+        <v>359252</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>381506</v>
+        <v>381287</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9192530342305895</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8867185864518667</v>
+        <v>0.8889039083735152</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9439672932034372</v>
+        <v>0.9434249171193033</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>581</v>
@@ -1452,19 +1452,19 @@
         <v>593765</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>577994</v>
+        <v>576890</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>608027</v>
+        <v>607563</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.907892931095468</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.883778281813102</v>
+        <v>0.8820901477908635</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9297005803723765</v>
+        <v>0.9289917471103026</v>
       </c>
     </row>
     <row r="15">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7603</v>
+        <v>6852</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02946203745670212</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1059351688343383</v>
+        <v>0.09546880222251256</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6782</v>
+        <v>6590</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01650348357085207</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05839132345232575</v>
+        <v>0.05674034024028876</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1645,19 +1645,19 @@
         <v>4031</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9651</v>
+        <v>9292</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02145258400710639</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005344033600883273</v>
+        <v>0.005322623898197553</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05135913880273135</v>
+        <v>0.04945009919316439</v>
       </c>
     </row>
     <row r="18">
@@ -1674,19 +1674,19 @@
         <v>13264</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7036</v>
+        <v>7152</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22176</v>
+        <v>21596</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1848218283465764</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09803941725899684</v>
+        <v>0.09965220185122402</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3089890772521205</v>
+        <v>0.3009043035719209</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -1695,19 +1695,19 @@
         <v>9108</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4101</v>
+        <v>4066</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16035</v>
+        <v>16550</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07842110007779823</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03530997955712911</v>
+        <v>0.03500587087641101</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1380605964908494</v>
+        <v>0.1424922760792484</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -1716,19 +1716,19 @@
         <v>22373</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>14154</v>
+        <v>13377</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>34175</v>
+        <v>32108</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.119057416084308</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07532066211481171</v>
+        <v>0.07118340459345869</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1818651349987933</v>
+        <v>0.1708636734800236</v>
       </c>
     </row>
     <row r="19">
@@ -1745,19 +1745,19 @@
         <v>5569</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1911</v>
+        <v>1973</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11069</v>
+        <v>11263</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07760179781649802</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02662990616989027</v>
+        <v>0.02748778840572574</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1542366397625499</v>
+        <v>0.1569310719106857</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1766,19 +1766,19 @@
         <v>10516</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5030</v>
+        <v>5433</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18204</v>
+        <v>18308</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09053986937115358</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04330489121112061</v>
+        <v>0.04678025726325495</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1567335410660264</v>
+        <v>0.1576255175260978</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -1787,19 +1787,19 @@
         <v>16085</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9407</v>
+        <v>9310</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25745</v>
+        <v>25109</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08559859149867782</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05006221818705962</v>
+        <v>0.04954385399252698</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1370043184143228</v>
+        <v>0.1336181133298594</v>
       </c>
     </row>
     <row r="20">
@@ -1816,19 +1816,19 @@
         <v>50821</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41355</v>
+        <v>42086</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58254</v>
+        <v>57872</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7081143363802235</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5762289714580352</v>
+        <v>0.5864055394490046</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8116887388379617</v>
+        <v>0.8063581015445317</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>91</v>
@@ -1837,19 +1837,19 @@
         <v>94607</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>85731</v>
+        <v>85713</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>102646</v>
+        <v>102397</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8145355469801961</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7381146415303109</v>
+        <v>0.7379610103251278</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8837488794151466</v>
+        <v>0.881609484379667</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>138</v>
@@ -1858,19 +1858,19 @@
         <v>145427</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>132599</v>
+        <v>133149</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>156244</v>
+        <v>156843</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7738914084099078</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7056271568260547</v>
+        <v>0.7085544399397656</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8314562973070407</v>
+        <v>0.8346458403635448</v>
       </c>
     </row>
     <row r="21">
@@ -2009,19 +2009,19 @@
         <v>15296</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9205</v>
+        <v>9425</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24519</v>
+        <v>24342</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02332386797424452</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01403617033009172</v>
+        <v>0.01437169656645596</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03738792803970827</v>
+        <v>0.03711703020435182</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -2030,19 +2030,19 @@
         <v>9943</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4929</v>
+        <v>4948</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17778</v>
+        <v>17453</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009483952115142682</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00470182886608674</v>
+        <v>0.004719709935001228</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01695740308424813</v>
+        <v>0.01664736418188976</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>26</v>
@@ -2051,19 +2051,19 @@
         <v>25239</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16852</v>
+        <v>16602</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>36077</v>
+        <v>35530</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01480988457494396</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.009888620961759449</v>
+        <v>0.009741673960506196</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02116960569378013</v>
+        <v>0.02084898111166362</v>
       </c>
     </row>
     <row r="24">
@@ -2080,19 +2080,19 @@
         <v>29317</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20040</v>
+        <v>19449</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>43841</v>
+        <v>43230</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04470294321960423</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03055833424119112</v>
+        <v>0.02965643157008722</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06685007321882756</v>
+        <v>0.06591788072560775</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>27</v>
@@ -2101,19 +2101,19 @@
         <v>29390</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20563</v>
+        <v>18782</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>43101</v>
+        <v>42541</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02803357608954066</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01961472738437193</v>
+        <v>0.01791569032327071</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04111199274630005</v>
+        <v>0.0405786095821051</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>54</v>
@@ -2122,19 +2122,19 @@
         <v>58706</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>43668</v>
+        <v>46153</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>76015</v>
+        <v>75897</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03444834944410292</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02562427833536458</v>
+        <v>0.02708237143815595</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04460489506928217</v>
+        <v>0.0445360340455689</v>
       </c>
     </row>
     <row r="25">
@@ -2151,19 +2151,19 @@
         <v>17157</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10296</v>
+        <v>11033</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26837</v>
+        <v>27769</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02616104975674262</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0156999504656786</v>
+        <v>0.01682366633487204</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04092195906006568</v>
+        <v>0.04234319513103865</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -2172,19 +2172,19 @@
         <v>25756</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17066</v>
+        <v>17664</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38129</v>
+        <v>38386</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02456769482075709</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.016279046732432</v>
+        <v>0.01684874432611952</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03637023898634975</v>
+        <v>0.03661470292531629</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -2193,19 +2193,19 @@
         <v>42913</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>31089</v>
+        <v>31506</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>57769</v>
+        <v>58851</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02518085611884179</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01824289222176927</v>
+        <v>0.01848768863886615</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03389824998157272</v>
+        <v>0.03453307454121545</v>
       </c>
     </row>
     <row r="26">
@@ -2222,19 +2222,19 @@
         <v>594040</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>577420</v>
+        <v>576947</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>608477</v>
+        <v>607897</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9058121390494086</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8804698146954999</v>
+        <v>0.8797487139837572</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9278268039867597</v>
+        <v>0.9269419439024092</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>961</v>
@@ -2243,19 +2243,19 @@
         <v>983282</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>965394</v>
+        <v>965423</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>997440</v>
+        <v>998546</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9379147769745596</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9208525527601105</v>
+        <v>0.920880321415508</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9514194172536717</v>
+        <v>0.9524752625553232</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1558</v>
@@ -2264,19 +2264,19 @@
         <v>1577321</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1553318</v>
+        <v>1555854</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1599013</v>
+        <v>1598808</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9255609098621114</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9114757422732273</v>
+        <v>0.9129636946359428</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9382894552028648</v>
+        <v>0.938168914600453</v>
       </c>
     </row>
     <row r="27">
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4010</v>
+        <v>4617</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002714616067543129</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01188104668449033</v>
+        <v>0.01367938980860145</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4630</v>
+        <v>4602</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00104264093193681</v>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005268858117842929</v>
+        <v>0.005237874277226083</v>
       </c>
     </row>
     <row r="5">
@@ -2670,19 +2670,19 @@
         <v>3467</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10593</v>
+        <v>10398</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01027320465053152</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002831447096433428</v>
+        <v>0.002787099019855089</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0313872963590788</v>
+        <v>0.03081052692798161</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4800</v>
+        <v>4832</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001766670532485735</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.008869576950203292</v>
+        <v>0.008928414760778441</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -2712,19 +2712,19 @@
         <v>4423</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11505</v>
+        <v>10637</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.005033895230090457</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001092249161670385</v>
+        <v>0.001087349286860997</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0130938825095722</v>
+        <v>0.01210610953205545</v>
       </c>
     </row>
     <row r="6">
@@ -2741,19 +2741,19 @@
         <v>4215</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1101</v>
+        <v>1071</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11006</v>
+        <v>11435</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01248924505384426</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003261671804651113</v>
+        <v>0.003174230058221187</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03261344811462683</v>
+        <v>0.03388418602976304</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -2762,19 +2762,19 @@
         <v>7344</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3003</v>
+        <v>3229</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13880</v>
+        <v>14890</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01357112276729756</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005549048088711144</v>
+        <v>0.005967302602912125</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02564807002882892</v>
+        <v>0.02751421581732358</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -2783,19 +2783,19 @@
         <v>11559</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6261</v>
+        <v>6100</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19813</v>
+        <v>19890</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.013155590714392</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007125101339471519</v>
+        <v>0.006942070779713452</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02254947909555633</v>
+        <v>0.02263628797382517</v>
       </c>
     </row>
     <row r="7">
@@ -2812,19 +2812,19 @@
         <v>2955</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8519</v>
+        <v>7889</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008755738531887641</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002762327876891645</v>
+        <v>0.002734086795771402</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02524265966957694</v>
+        <v>0.02337581225762784</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2833,19 +2833,19 @@
         <v>2987</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8123</v>
+        <v>8117</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005519017222437219</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001638900138361117</v>
+        <v>0.001646220189068873</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01501041587100275</v>
+        <v>0.01499796320287858</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -2854,19 +2854,19 @@
         <v>5942</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2680</v>
+        <v>2008</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11980</v>
+        <v>12852</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006762190488393548</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003049966868862698</v>
+        <v>0.00228536970634403</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01363446583185152</v>
+        <v>0.01462670443839697</v>
       </c>
     </row>
     <row r="8">
@@ -2883,19 +2883,19 @@
         <v>325928</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>316678</v>
+        <v>317233</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>331295</v>
+        <v>331622</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9657671956961934</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9383576771569642</v>
+        <v>0.9400038131886924</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9816705174101996</v>
+        <v>0.9826401307440197</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>499</v>
@@ -2904,19 +2904,19 @@
         <v>529897</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>521508</v>
+        <v>521654</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>535068</v>
+        <v>535075</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9791431894777795</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9636420322416217</v>
+        <v>0.9639120029053806</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9886992074439201</v>
+        <v>0.9887125359607237</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>797</v>
@@ -2925,19 +2925,19 @@
         <v>855825</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>844514</v>
+        <v>845791</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>864206</v>
+        <v>863990</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9740056826351872</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9611326073385842</v>
+        <v>0.962585966543844</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9835443135921514</v>
+        <v>0.9832990291156145</v>
       </c>
     </row>
     <row r="9">
@@ -3076,19 +3076,19 @@
         <v>2743</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7602</v>
+        <v>7320</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007716252387814346</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002242601157230008</v>
+        <v>0.002237886698624673</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02138300135203937</v>
+        <v>0.02058993534878778</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -3110,19 +3110,19 @@
         <v>2743</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7606</v>
+        <v>6788</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003257804147133608</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0009530988833607702</v>
+        <v>0.0009344653045743267</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009032883573066454</v>
+        <v>0.008061101794543678</v>
       </c>
     </row>
     <row r="12">
@@ -3139,19 +3139,19 @@
         <v>7880</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3864</v>
+        <v>3813</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14607</v>
+        <v>14394</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02216470186119849</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01086927638666477</v>
+        <v>0.01072362648762432</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04108638068644988</v>
+        <v>0.0404858799118777</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -3160,19 +3160,19 @@
         <v>8969</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4029</v>
+        <v>3981</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16839</v>
+        <v>15845</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01843480030053368</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.008281341996488901</v>
+        <v>0.008181693630055725</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03460839303073478</v>
+        <v>0.03256537720078949</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -3181,19 +3181,19 @@
         <v>16850</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10107</v>
+        <v>9844</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>26845</v>
+        <v>26775</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02000956589424644</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0120023377967754</v>
+        <v>0.01169039488956223</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03187932622810016</v>
+        <v>0.03179597206930999</v>
       </c>
     </row>
     <row r="13">
@@ -3210,19 +3210,19 @@
         <v>16364</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8733</v>
+        <v>9431</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27197</v>
+        <v>30016</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0460264637353795</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02456469378771473</v>
+        <v>0.02652652428930583</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07649787510955511</v>
+        <v>0.08442635944325157</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -3231,19 +3231,19 @@
         <v>4850</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1812</v>
+        <v>1796</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12695</v>
+        <v>13612</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00996832559994015</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003723158304091831</v>
+        <v>0.003691210201249058</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02609173125261953</v>
+        <v>0.02797651844186358</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -3252,19 +3252,19 @@
         <v>21214</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12135</v>
+        <v>12614</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34079</v>
+        <v>34556</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02519208268454021</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01441076109181828</v>
+        <v>0.01497920789577816</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04047013778594645</v>
+        <v>0.04103711847234362</v>
       </c>
     </row>
     <row r="14">
@@ -3281,19 +3281,19 @@
         <v>328538</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>316464</v>
+        <v>314407</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>337577</v>
+        <v>337538</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9240925820156076</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8901324926010936</v>
+        <v>0.8843452178613351</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9495164316238994</v>
+        <v>0.9494063388344508</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>442</v>
@@ -3302,19 +3302,19 @@
         <v>472732</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>463121</v>
+        <v>463287</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>479531</v>
+        <v>478783</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9715968740995262</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9518418965652004</v>
+        <v>0.9521840833206116</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9855707812785715</v>
+        <v>0.9840317077726166</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>749</v>
@@ -3323,19 +3323,19 @@
         <v>801270</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>786414</v>
+        <v>784642</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>813410</v>
+        <v>812814</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9515405472740798</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9338979385132302</v>
+        <v>0.9317941811831242</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9659570477709166</v>
+        <v>0.9652493899669378</v>
       </c>
     </row>
     <row r="15">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5097</v>
+        <v>5212</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01313898603382464</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06812674925132634</v>
+        <v>0.06966024925938588</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8382</v>
+        <v>11690</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01646521664591761</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07780079488540391</v>
+        <v>0.1085111929995664</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8728</v>
+        <v>10392</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01510193653646641</v>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0478136124129081</v>
+        <v>0.05692562926135022</v>
       </c>
     </row>
     <row r="18">
@@ -3545,19 +3545,19 @@
         <v>7041</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2981</v>
+        <v>2853</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15062</v>
+        <v>14774</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09410962126010776</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03984671273182579</v>
+        <v>0.03812646507900563</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2013152217730067</v>
+        <v>0.1974579838779121</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -3566,19 +3566,19 @@
         <v>2878</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7988</v>
+        <v>7697</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0267150229131047</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008221409744862818</v>
+        <v>0.008294782863411601</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07415066716344833</v>
+        <v>0.07144787780509745</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>9</v>
@@ -3587,19 +3587,19 @@
         <v>9919</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4868</v>
+        <v>4897</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>19330</v>
+        <v>17862</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05433719531356535</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02666644004060634</v>
+        <v>0.02682801747381473</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.105886754201114</v>
+        <v>0.09784656328460412</v>
       </c>
     </row>
     <row r="19">
@@ -3616,19 +3616,19 @@
         <v>5169</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1918</v>
+        <v>2013</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11056</v>
+        <v>11467</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06909175823950682</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02563226199489338</v>
+        <v>0.02690457772183371</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1477678087656595</v>
+        <v>0.1532583194214227</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -3637,19 +3637,19 @@
         <v>16593</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9359</v>
+        <v>9548</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26429</v>
+        <v>26889</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1540266584735543</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08687125433366322</v>
+        <v>0.08862375291305642</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2453200300611342</v>
+        <v>0.2495972121646422</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -3658,19 +3658,19 @@
         <v>21763</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12888</v>
+        <v>13459</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32884</v>
+        <v>31566</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1192154641846412</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07060049865999647</v>
+        <v>0.07372867227155927</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1801360412933993</v>
+        <v>0.1729159914437523</v>
       </c>
     </row>
     <row r="20">
@@ -3687,19 +3687,19 @@
         <v>61626</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>52872</v>
+        <v>52177</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>67825</v>
+        <v>67719</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8236596344665608</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7066499909829042</v>
+        <v>0.697372382926622</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9065089308977722</v>
+        <v>0.9050904950691996</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>74</v>
@@ -3708,19 +3708,19 @@
         <v>86486</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>76251</v>
+        <v>75378</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>95542</v>
+        <v>94390</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8027931019674234</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7077907660209199</v>
+        <v>0.6996844913502108</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8868586214778738</v>
+        <v>0.8761623288614031</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>127</v>
@@ -3729,19 +3729,19 @@
         <v>148111</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>136154</v>
+        <v>136779</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>159577</v>
+        <v>159904</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8113454039653271</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7458470950435522</v>
+        <v>0.7492684434693639</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8741556179111912</v>
+        <v>0.8759461772671657</v>
       </c>
     </row>
     <row r="21">
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5069</v>
+        <v>5480</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001193150682076805</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.006601994405647612</v>
+        <v>0.007136479158441511</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4592</v>
+        <v>5105</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0004813407536783601</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.00241287246599343</v>
+        <v>0.002682103329842144</v>
       </c>
     </row>
     <row r="23">
@@ -3896,19 +3896,19 @@
         <v>7193</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2860</v>
+        <v>2911</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13955</v>
+        <v>14910</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.009368514973657803</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003725336131539192</v>
+        <v>0.003790719377214136</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01817491562994554</v>
+        <v>0.0194189043830691</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11504</v>
+        <v>11204</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.002404213077326729</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01013153533075715</v>
+        <v>0.009867035509638231</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -3938,19 +3938,19 @@
         <v>9923</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4640</v>
+        <v>4811</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>19324</v>
+        <v>19066</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.005213751196844685</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002437974700897981</v>
+        <v>0.002527476192702627</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01015270707290272</v>
+        <v>0.01001739502964218</v>
       </c>
     </row>
     <row r="24">
@@ -3967,19 +3967,19 @@
         <v>19136</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12062</v>
+        <v>11528</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>31308</v>
+        <v>29848</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02492262212214051</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01570960551061661</v>
+        <v>0.01501370156687448</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04077477428009996</v>
+        <v>0.03887347132775913</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>19</v>
@@ -3988,19 +3988,19 @@
         <v>19192</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11794</v>
+        <v>11904</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29037</v>
+        <v>29868</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01690229416468722</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01038670794400616</v>
+        <v>0.01048357112946174</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02557238977287433</v>
+        <v>0.02630449939057031</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>37</v>
@@ -4009,19 +4009,19 @@
         <v>38328</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>26061</v>
+        <v>27671</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>50970</v>
+        <v>51928</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02013785423415688</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01369273523039208</v>
+        <v>0.01453824906062264</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02677971586257445</v>
+        <v>0.02728320022321711</v>
       </c>
     </row>
     <row r="25">
@@ -4038,19 +4038,19 @@
         <v>24488</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15740</v>
+        <v>15911</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38116</v>
+        <v>37446</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0318924846783585</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02050008334465763</v>
+        <v>0.02072164334223342</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04964116447310758</v>
+        <v>0.04876856044347466</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -4059,19 +4059,19 @@
         <v>24430</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15758</v>
+        <v>15617</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37197</v>
+        <v>35872</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02151566367415788</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01387803834779205</v>
+        <v>0.01375343958203539</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03275949000387113</v>
+        <v>0.03159204986953783</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -4080,19 +4080,19 @@
         <v>48918</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>35998</v>
+        <v>36086</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>65820</v>
+        <v>65472</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02570187998193672</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0189135466639943</v>
+        <v>0.01895994814751568</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03458211906138554</v>
+        <v>0.03439951202869412</v>
       </c>
     </row>
     <row r="26">
@@ -4109,19 +4109,19 @@
         <v>716092</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>700169</v>
+        <v>699437</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>730324</v>
+        <v>728182</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9326232275437664</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9118854769398758</v>
+        <v>0.9109309959515584</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9511583303999751</v>
+        <v>0.9483684496330863</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1015</v>
@@ -4130,19 +4130,19 @@
         <v>1089114</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1073085</v>
+        <v>1073417</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1101141</v>
+        <v>1101760</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9591778290838282</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9450610904596828</v>
+        <v>0.9453541136367473</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9697701770484087</v>
+        <v>0.9703151189522378</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1673</v>
@@ -4151,19 +4151,19 @@
         <v>1805206</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1784902</v>
+        <v>1781720</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1822752</v>
+        <v>1822041</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9484651738333834</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9377971694180238</v>
+        <v>0.9361254165481303</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9576836654478059</v>
+        <v>0.9573100361163468</v>
       </c>
     </row>
     <row r="27">
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7625</v>
+        <v>6693</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004737951853186168</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01854061701530971</v>
+        <v>0.01627348322697028</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6336</v>
+        <v>7843</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002910372059324253</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.009463443023648209</v>
+        <v>0.01171377159017904</v>
       </c>
     </row>
     <row r="6">
@@ -4617,19 +4617,19 @@
         <v>4110</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12216</v>
+        <v>11768</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.009993094609127727</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002772077136826538</v>
+        <v>0.002766984627805486</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02970256881976836</v>
+        <v>0.02861316701948692</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -4638,19 +4638,19 @@
         <v>4110</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11724</v>
+        <v>11799</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006138437923768907</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001700516764694</v>
+        <v>0.001692155822096896</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0175111819477751</v>
+        <v>0.01762300657235734</v>
       </c>
     </row>
     <row r="7">
@@ -4667,19 +4667,19 @@
         <v>5317</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2034</v>
+        <v>1994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12254</v>
+        <v>11725</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02058900195380837</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007875076007567568</v>
+        <v>0.007722650063482236</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04744582608087927</v>
+        <v>0.04539929738018521</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4688,19 +4688,19 @@
         <v>7752</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3123</v>
+        <v>3067</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16519</v>
+        <v>15633</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01884899659309654</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0075944390938531</v>
+        <v>0.007457860053033944</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04016389347835096</v>
+        <v>0.0380101608281908</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -4709,19 +4709,19 @@
         <v>13070</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7092</v>
+        <v>7198</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22861</v>
+        <v>22320</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01952017239584554</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01059182087849377</v>
+        <v>0.01075130496107859</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0341438353238456</v>
+        <v>0.03333561352422494</v>
       </c>
     </row>
     <row r="8">
@@ -4738,19 +4738,19 @@
         <v>252947</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>246010</v>
+        <v>246539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>256230</v>
+        <v>256270</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9794109980461916</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9525541739191207</v>
+        <v>0.9546007026198148</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9921249239924325</v>
+        <v>0.9922773499365177</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>355</v>
@@ -4759,19 +4759,19 @@
         <v>397467</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>387182</v>
+        <v>386985</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>403830</v>
+        <v>403645</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9664199569445896</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9414127215123107</v>
+        <v>0.9409327593175354</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9818894803294934</v>
+        <v>0.981440326336019</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>612</v>
@@ -4780,19 +4780,19 @@
         <v>650414</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>638850</v>
+        <v>640592</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>657816</v>
+        <v>657909</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9714310176210613</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9541598705240417</v>
+        <v>0.9567608418571919</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9824869877625091</v>
+        <v>0.9826259210224709</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4970</v>
+        <v>5791</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002134453644113236</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01078948032181723</v>
+        <v>0.01257009484632398</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5581</v>
+        <v>4733</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0009409921912539822</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005340740274358205</v>
+        <v>0.004529088524721272</v>
       </c>
     </row>
     <row r="11">
@@ -4947,19 +4947,19 @@
         <v>7758</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3783</v>
+        <v>3742</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14682</v>
+        <v>14664</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01684075726094785</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00821243159049781</v>
+        <v>0.008123355430857862</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03187064871667247</v>
+        <v>0.03183045401142466</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7702</v>
+        <v>6059</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003353990982003211</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01318204555160041</v>
+        <v>0.01036995773900716</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -4989,7 +4989,7 @@
         <v>9718</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5747</v>
+        <v>4851</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>17592</v>
@@ -4998,10 +4998,10 @@
         <v>0.009299747540715882</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005500057868347798</v>
+        <v>0.004642250795972577</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01683496133363284</v>
+        <v>0.01683556306852783</v>
       </c>
     </row>
     <row r="12">
@@ -5018,19 +5018,19 @@
         <v>9531</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4519</v>
+        <v>4274</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18037</v>
+        <v>18841</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02068798198123134</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009810413733571034</v>
+        <v>0.009277075206043107</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03915342444794767</v>
+        <v>0.04089769603018342</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -5039,19 +5039,19 @@
         <v>11033</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5608</v>
+        <v>5820</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20004</v>
+        <v>20023</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01888369130450375</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009597908629510571</v>
+        <v>0.009960853498425827</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03423650703828857</v>
+        <v>0.03426919667686253</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -5060,19 +5060,19 @@
         <v>20564</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12361</v>
+        <v>13381</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>33137</v>
+        <v>33756</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01967912832054557</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01182945511718986</v>
+        <v>0.01280490094673076</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03171102828163581</v>
+        <v>0.03230342283723401</v>
       </c>
     </row>
     <row r="13">
@@ -5089,19 +5089,19 @@
         <v>24109</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15780</v>
+        <v>16047</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35550</v>
+        <v>37500</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05233366311484867</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03425274857675165</v>
+        <v>0.03483244772072406</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07716844538710546</v>
+        <v>0.08140143109508921</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -5110,19 +5110,19 @@
         <v>19093</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11559</v>
+        <v>11945</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30903</v>
+        <v>30700</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03267768380998717</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01978297866949916</v>
+        <v>0.02044399766576815</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05289155953072689</v>
+        <v>0.05254302935374379</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -5131,19 +5131,19 @@
         <v>43202</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30709</v>
+        <v>31283</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58347</v>
+        <v>57860</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04134319083017304</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02938769539911051</v>
+        <v>0.02993711168903903</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05583670045263783</v>
+        <v>0.05537033601319596</v>
       </c>
     </row>
     <row r="14">
@@ -5160,19 +5160,19 @@
         <v>418298</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>405334</v>
+        <v>402976</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>429375</v>
+        <v>429491</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.908003143998859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.87986226780429</v>
+        <v>0.8747429121225725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9320488694283561</v>
+        <v>0.9322998707945299</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>523</v>
@@ -5181,19 +5181,19 @@
         <v>552194</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>537228</v>
+        <v>539848</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>562278</v>
+        <v>562899</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9450846339035058</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9194702291227607</v>
+        <v>0.9239540218040926</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9623440116679709</v>
+        <v>0.9634065430246668</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>913</v>
@@ -5202,19 +5202,19 @@
         <v>970492</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>950355</v>
+        <v>953613</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>986325</v>
+        <v>985607</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9287369411173115</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9094666084709715</v>
+        <v>0.9125839512574883</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9438884610384035</v>
+        <v>0.9432019898327451</v>
       </c>
     </row>
     <row r="15">
@@ -5353,19 +5353,19 @@
         <v>3118</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8386</v>
+        <v>7798</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02583490183418127</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008084814469827048</v>
+        <v>0.008070904523259299</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06947208389546178</v>
+        <v>0.06460492538808346</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4273</v>
+        <v>4516</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.00635535630997896</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03082534368616874</v>
+        <v>0.03258043206774434</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -5395,19 +5395,19 @@
         <v>3999</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1121</v>
+        <v>991</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9980</v>
+        <v>9790</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01542218746429435</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004322697762017147</v>
+        <v>0.003822321137746488</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03848550686450295</v>
+        <v>0.03774972840713441</v>
       </c>
     </row>
     <row r="18">
@@ -5424,19 +5424,19 @@
         <v>6670</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2703</v>
+        <v>2709</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14740</v>
+        <v>14470</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05526153878173458</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02239395821060933</v>
+        <v>0.02244063210652172</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.122115493018886</v>
+        <v>0.1198805601590121</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -5445,19 +5445,19 @@
         <v>4031</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9681</v>
+        <v>10045</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02907548526018795</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007779114325677264</v>
+        <v>0.00775866410387336</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06983805967354779</v>
+        <v>0.07246247394025718</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -5466,19 +5466,19 @@
         <v>10701</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5483</v>
+        <v>4890</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>19756</v>
+        <v>18245</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04126388696508101</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02114204170377741</v>
+        <v>0.0188550374341582</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07618252981320202</v>
+        <v>0.07035523695375183</v>
       </c>
     </row>
     <row r="19">
@@ -5495,19 +5495,19 @@
         <v>15911</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9725</v>
+        <v>8938</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25206</v>
+        <v>25345</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1318184891068414</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08056593574842134</v>
+        <v>0.07404757825551306</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2088268087624486</v>
+        <v>0.2099714062077339</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -5516,19 +5516,19 @@
         <v>19369</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11688</v>
+        <v>11754</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28723</v>
+        <v>28569</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1397240533798201</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08431728890705213</v>
+        <v>0.08479378736555319</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2072036555166998</v>
+        <v>0.2060948777218214</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -5537,19 +5537,19 @@
         <v>35280</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25861</v>
+        <v>25111</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48517</v>
+        <v>48253</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1360443773651189</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09972405174733177</v>
+        <v>0.09683123703252326</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1870859110401327</v>
+        <v>0.1860684189104611</v>
       </c>
     </row>
     <row r="20">
@@ -5566,19 +5566,19 @@
         <v>95005</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>84967</v>
+        <v>83714</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>103404</v>
+        <v>103276</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7870850702772428</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7039190740511129</v>
+        <v>0.6935449505015124</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8566672756145263</v>
+        <v>0.855605233571119</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>107</v>
@@ -5587,19 +5587,19 @@
         <v>114343</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>104697</v>
+        <v>104583</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>122760</v>
+        <v>123104</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8248451050500131</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7552670563907308</v>
+        <v>0.7544413326831779</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8855666290960013</v>
+        <v>0.8880455315447173</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>193</v>
@@ -5608,19 +5608,19 @@
         <v>209348</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>195922</v>
+        <v>194255</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>221086</v>
+        <v>222008</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8072695482055058</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.755497888056652</v>
+        <v>0.7490724628042443</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8525346323274284</v>
+        <v>0.8560900076386077</v>
       </c>
     </row>
     <row r="21">
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4889</v>
+        <v>5912</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001171083702334138</v>
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.005823197827537894</v>
+        <v>0.007040675194091876</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5424</v>
+        <v>4937</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0004981679128323386</v>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.002747771843175183</v>
+        <v>0.002501480800173419</v>
       </c>
     </row>
     <row r="23">
@@ -5775,19 +5775,19 @@
         <v>10877</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5817</v>
+        <v>5828</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19663</v>
+        <v>18402</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01295374920000167</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006927392854679434</v>
+        <v>0.006940689989372234</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02341757902498898</v>
+        <v>0.02191599981398984</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -5796,19 +5796,19 @@
         <v>4789</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1814</v>
+        <v>1755</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10698</v>
+        <v>9992</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004222679925001435</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001599348064590713</v>
+        <v>0.001547548645247515</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.009432082143230408</v>
+        <v>0.008810183409705859</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -5817,19 +5817,19 @@
         <v>15666</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9581</v>
+        <v>8994</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>26439</v>
+        <v>25807</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.007936794081702763</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004854232839362352</v>
+        <v>0.004556813282379084</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01339458763200759</v>
+        <v>0.01307459912793371</v>
       </c>
     </row>
     <row r="24">
@@ -5846,19 +5846,19 @@
         <v>16201</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9665</v>
+        <v>8952</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27568</v>
+        <v>26894</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01929483761309246</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01151076309435926</v>
+        <v>0.01066154446553835</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03283248598508771</v>
+        <v>0.03203037340125769</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -5867,19 +5867,19 @@
         <v>19174</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11222</v>
+        <v>11852</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31235</v>
+        <v>32269</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01690543914518447</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009894122526891884</v>
+        <v>0.01044983058891944</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02753946607975154</v>
+        <v>0.02845154159546045</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>31</v>
@@ -5888,19 +5888,19 @@
         <v>35375</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>24475</v>
+        <v>23541</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>49921</v>
+        <v>49172</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01792186661771272</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01239951622414166</v>
+        <v>0.01192660722418426</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02529154817421967</v>
+        <v>0.02491211555910449</v>
       </c>
     </row>
     <row r="25">
@@ -5917,19 +5917,19 @@
         <v>45338</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33502</v>
+        <v>33305</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60640</v>
+        <v>60352</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05399594321575563</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03989984233048827</v>
+        <v>0.03966596967322496</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07222114073549427</v>
+        <v>0.07187808965755067</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>42</v>
@@ -5938,19 +5938,19 @@
         <v>46214</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33460</v>
+        <v>34265</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59640</v>
+        <v>60671</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04074660446382602</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02950120055496362</v>
+        <v>0.03021131349714879</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0525840542551452</v>
+        <v>0.05349334742707609</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>83</v>
@@ -5959,19 +5959,19 @@
         <v>91552</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>72207</v>
+        <v>73445</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>110823</v>
+        <v>111160</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04638274765265347</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03658197040803573</v>
+        <v>0.03720920277758042</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05614626000022781</v>
+        <v>0.0563169429097883</v>
       </c>
     </row>
     <row r="26">
@@ -5988,19 +5988,19 @@
         <v>766250</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>747527</v>
+        <v>748058</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>781240</v>
+        <v>782054</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9125843862688161</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.890285804880778</v>
+        <v>0.8909188012894116</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9304369786520713</v>
+        <v>0.9314073221011537</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>985</v>
@@ -6009,19 +6009,19 @@
         <v>1064004</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1046719</v>
+        <v>1046373</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1080085</v>
+        <v>1078663</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9381252764659881</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9228849531339252</v>
+        <v>0.9225802048519093</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9523042202779785</v>
+        <v>0.9510499505120797</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1718</v>
@@ -6030,19 +6030,19 @@
         <v>1830254</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1804713</v>
+        <v>1805060</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1852368</v>
+        <v>1852870</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9272604237350986</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9143202941251217</v>
+        <v>0.9144964181304707</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9384635488283609</v>
+        <v>0.9387181616914348</v>
       </c>
     </row>
     <row r="27">
@@ -6470,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2254</v>
+        <v>3288</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003083769007453539</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0153170525958897</v>
+        <v>0.02234627152117427</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -6488,19 +6488,19 @@
         <v>3019</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1231</v>
+        <v>1137</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6642</v>
+        <v>6358</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01173125642130852</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004783104542332654</v>
+        <v>0.004417165301211679</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02581436031712673</v>
+        <v>0.02471043375407182</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -6509,19 +6509,19 @@
         <v>3472</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1387</v>
+        <v>1490</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6951</v>
+        <v>6811</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.008585311900025391</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003428713726680317</v>
+        <v>0.003683842706788431</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01718655404702842</v>
+        <v>0.01683920457087973</v>
       </c>
     </row>
     <row r="7">
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5739</v>
+        <v>5712</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01101293995841878</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03900401605962577</v>
+        <v>0.03882320792363403</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -6559,19 +6559,19 @@
         <v>2779</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6923</v>
+        <v>7990</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01080058386734391</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003050127549116604</v>
+        <v>0.003079852326184959</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02690339575796646</v>
+        <v>0.03105072459382047</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -6580,19 +6580,19 @@
         <v>4400</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9297</v>
+        <v>10186</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0108778387333305</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004004290937066517</v>
+        <v>0.004003037059160542</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02298708667514992</v>
+        <v>0.02518391963656081</v>
       </c>
     </row>
     <row r="8">
@@ -6609,19 +6609,19 @@
         <v>145066</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>141394</v>
+        <v>141116</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>146684</v>
+        <v>146683</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9859032910341279</v>
+        <v>0.9859032910341277</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9609501068307821</v>
+        <v>0.9590596364070758</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9969003478712803</v>
+        <v>0.9968950484329773</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>431</v>
@@ -6630,19 +6630,19 @@
         <v>251517</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>246642</v>
+        <v>246154</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>254543</v>
+        <v>254568</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9774681597113476</v>
+        <v>0.9774681597113475</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9585209866675947</v>
+        <v>0.9566260111994812</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9892272830416101</v>
+        <v>0.9893242022607589</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>615</v>
@@ -6651,19 +6651,19 @@
         <v>396583</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>391303</v>
+        <v>390572</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>400155</v>
+        <v>400066</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.980536849366644</v>
+        <v>0.9805368493666442</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9674811461896148</v>
+        <v>0.9656742091573759</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.989368668562989</v>
+        <v>0.9891495930040868</v>
       </c>
     </row>
     <row r="9">
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4260</v>
+        <v>4270</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0028147704407973</v>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.008701439589395663</v>
+        <v>0.008723105964352603</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5457</v>
+        <v>4756</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001555620464198026</v>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006160300070883976</v>
+        <v>0.005369146501941565</v>
       </c>
     </row>
     <row r="11">
@@ -6818,19 +6818,19 @@
         <v>6189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13445</v>
+        <v>14568</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01562062758793235</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005884047131660892</v>
+        <v>0.005876810425512755</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.033931294942741</v>
+        <v>0.03676675680087214</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -6839,19 +6839,19 @@
         <v>4768</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1977</v>
+        <v>1931</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10590</v>
+        <v>10327</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009739201351794759</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00403812601320754</v>
+        <v>0.003944075389126129</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02163395081424987</v>
+        <v>0.02109647924600663</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -6860,19 +6860,19 @@
         <v>10957</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5574</v>
+        <v>5532</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20684</v>
+        <v>20145</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01237017885541858</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006293134911468891</v>
+        <v>0.006245642999799616</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02335146120391692</v>
+        <v>0.02274298674357976</v>
       </c>
     </row>
     <row r="12">
@@ -6889,19 +6889,19 @@
         <v>17319</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9734</v>
+        <v>9793</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30178</v>
+        <v>32017</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04370948246720313</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02456633824957431</v>
+        <v>0.02471479949741854</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07616310619462562</v>
+        <v>0.08080431632068601</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -6910,19 +6910,19 @@
         <v>21776</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14856</v>
+        <v>15216</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32235</v>
+        <v>32534</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04448333062320694</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03034864635594874</v>
+        <v>0.03108292768208689</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06585020449344842</v>
+        <v>0.06646099916768863</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>42</v>
@@ -6931,19 +6931,19 @@
         <v>39095</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>28246</v>
+        <v>27807</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>56127</v>
+        <v>53590</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04413715998229045</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03188897017267479</v>
+        <v>0.03139325955753838</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06336574923235276</v>
+        <v>0.06050131325842543</v>
       </c>
     </row>
     <row r="13">
@@ -6960,19 +6960,19 @@
         <v>15539</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9151</v>
+        <v>9001</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24905</v>
+        <v>25157</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03921733282846129</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02309402820939163</v>
+        <v>0.02271728027299971</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06285512234634912</v>
+        <v>0.06349063497615667</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -6981,19 +6981,19 @@
         <v>15946</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10313</v>
+        <v>10132</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23941</v>
+        <v>25035</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03257448887345193</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02106647222981469</v>
+        <v>0.02069794824875052</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0489054721557132</v>
+        <v>0.05114205625714504</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -7002,19 +7002,19 @@
         <v>31485</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22447</v>
+        <v>22803</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42905</v>
+        <v>42907</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03554607642790039</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0253418541063355</v>
+        <v>0.02574358280568864</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04843844610715554</v>
+        <v>0.04844044595462962</v>
       </c>
     </row>
     <row r="14">
@@ -7031,19 +7031,19 @@
         <v>357184</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>340552</v>
+        <v>341651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>367473</v>
+        <v>368438</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.901452557116403</v>
+        <v>0.9014525571164033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8594764313459978</v>
+        <v>0.8622504771283483</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9274199805624346</v>
+        <v>0.9298543319015985</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>605</v>
@@ -7052,19 +7052,19 @@
         <v>445659</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>432819</v>
+        <v>433770</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>456112</v>
+        <v>455727</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.910388208710749</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8841587395496071</v>
+        <v>0.8861024177391258</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9317417590935508</v>
+        <v>0.9309549258397597</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>950</v>
@@ -7073,19 +7073,19 @@
         <v>802843</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>781956</v>
+        <v>783817</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>818048</v>
+        <v>818064</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9063909642701925</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.882809926789042</v>
+        <v>0.8849107490061152</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9235567251066981</v>
+        <v>0.9235753280499123</v>
       </c>
     </row>
     <row r="15">
@@ -7224,19 +7224,19 @@
         <v>2390</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6797</v>
+        <v>6247</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01632616522865843</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004580575220335161</v>
+        <v>0.004615247254260825</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0464292967570278</v>
+        <v>0.04267571682620726</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -7245,19 +7245,19 @@
         <v>2314</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>655</v>
+        <v>696</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5875</v>
+        <v>6122</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01315127380231144</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003724368532638012</v>
+        <v>0.003957179435795225</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03338892319266418</v>
+        <v>0.03479228126843874</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -7266,19 +7266,19 @@
         <v>4704</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2035</v>
+        <v>2065</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8968</v>
+        <v>9590</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.01459310281739465</v>
+        <v>0.01459310281739466</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006314799885478422</v>
+        <v>0.006405629248075403</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02782107579968688</v>
+        <v>0.02975278527412663</v>
       </c>
     </row>
     <row r="18">
@@ -7295,19 +7295,19 @@
         <v>16950</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9725</v>
+        <v>9146</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26067</v>
+        <v>26737</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1157929609936404</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06643537329346738</v>
+        <v>0.06247786766050747</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1780699628593486</v>
+        <v>0.182649503384136</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -7316,19 +7316,19 @@
         <v>24177</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17438</v>
+        <v>17339</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33115</v>
+        <v>33428</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1374087948387328</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09910688174890006</v>
+        <v>0.09854149532053497</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1882055204295696</v>
+        <v>0.1899818733350785</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>45</v>
@@ -7337,19 +7337,19 @@
         <v>41128</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30095</v>
+        <v>30542</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>54580</v>
+        <v>54786</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.1275922901972081</v>
+        <v>0.1275922901972082</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09336376454008498</v>
+        <v>0.09475113453160625</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1693252561732471</v>
+        <v>0.1699638840156436</v>
       </c>
     </row>
     <row r="19">
@@ -7366,19 +7366,19 @@
         <v>12161</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6465</v>
+        <v>6284</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19719</v>
+        <v>20088</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.08307623441185075</v>
+        <v>0.08307623441185073</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04416407716500294</v>
+        <v>0.04293051161375823</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1347100324668678</v>
+        <v>0.1372267499613744</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -7387,19 +7387,19 @@
         <v>16960</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11089</v>
+        <v>11612</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24264</v>
+        <v>24187</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09639241030748173</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06302427690528033</v>
+        <v>0.06599581347600153</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1379008042905508</v>
+        <v>0.1374654917389467</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -7408,19 +7408,19 @@
         <v>29122</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20567</v>
+        <v>20516</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40481</v>
+        <v>39557</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09034507003721506</v>
+        <v>0.09034507003721509</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06380626599132617</v>
+        <v>0.06364777454589525</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1255873942969297</v>
+        <v>0.1227186083068578</v>
       </c>
     </row>
     <row r="20">
@@ -7437,19 +7437,19 @@
         <v>114883</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>103509</v>
+        <v>103428</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>124396</v>
+        <v>124637</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7848046393658504</v>
+        <v>0.7848046393658503</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7071036225687889</v>
+        <v>0.7065492905581934</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8497907915653621</v>
+        <v>0.851437058047097</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>178</v>
@@ -7458,19 +7458,19 @@
         <v>132500</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>121921</v>
+        <v>121573</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>142317</v>
+        <v>141488</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7530475210514739</v>
+        <v>0.753047521051474</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6929220518312701</v>
+        <v>0.6909428702972201</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8088412797742435</v>
+        <v>0.8041285149523939</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>293</v>
@@ -7479,19 +7479,19 @@
         <v>247384</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>231272</v>
+        <v>231188</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>260860</v>
+        <v>260696</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.767469536948182</v>
+        <v>0.7674695369481822</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7174847336912742</v>
+        <v>0.7172258075871997</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8092769939580593</v>
+        <v>0.8087691399405388</v>
       </c>
     </row>
     <row r="21">
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4701</v>
+        <v>5360</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001493188304671456</v>
@@ -7608,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.005094071653796176</v>
+        <v>0.005808374310904127</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -7620,16 +7620,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4219</v>
+        <v>4207</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0008544877016834633</v>
+        <v>0.0008544877016834634</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.00261622726229025</v>
+        <v>0.002608654039098772</v>
       </c>
     </row>
     <row r="23">
@@ -7646,19 +7646,19 @@
         <v>8579</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4110</v>
+        <v>4115</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17651</v>
+        <v>17295</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0124381415794396</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005959222523172131</v>
+        <v>0.005965857160566053</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02559018493660228</v>
+        <v>0.02507445699762535</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -7667,19 +7667,19 @@
         <v>7082</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3557</v>
+        <v>3759</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12816</v>
+        <v>12697</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.007674083442615702</v>
+        <v>0.007674083442615701</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003854505443144977</v>
+        <v>0.004073429324360991</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01388851106758213</v>
+        <v>0.01375908259278326</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -7688,19 +7688,19 @@
         <v>15661</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>9354</v>
+        <v>9713</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24888</v>
+        <v>25007</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009711875190073018</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005801005985349003</v>
+        <v>0.006023649222730201</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01543369621123342</v>
+        <v>0.01550744836406359</v>
       </c>
     </row>
     <row r="24">
@@ -7717,19 +7717,19 @@
         <v>34723</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23933</v>
+        <v>22372</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>49904</v>
+        <v>49934</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.05034112656832548</v>
+        <v>0.05034112656832547</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03469820750678684</v>
+        <v>0.03243427293781381</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07235036499165134</v>
+        <v>0.07239327752750349</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>66</v>
@@ -7738,19 +7738,19 @@
         <v>48972</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39793</v>
+        <v>37203</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>63964</v>
+        <v>61958</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05306907316597471</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04312287483756671</v>
+        <v>0.04031511455730648</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0693157049479443</v>
+        <v>0.06714191549530692</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>94</v>
@@ -7759,19 +7759,19 @@
         <v>83695</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>65813</v>
+        <v>67373</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>102164</v>
+        <v>103467</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05190221354660407</v>
+        <v>0.05190221354660408</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04081312767147615</v>
+        <v>0.04178038370895846</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06335580672645888</v>
+        <v>0.06416379629079758</v>
       </c>
     </row>
     <row r="25">
@@ -7788,19 +7788,19 @@
         <v>29321</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20518</v>
+        <v>19616</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41474</v>
+        <v>42777</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04250872414272315</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02974714039411953</v>
+        <v>0.02843834289345112</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06012885314535994</v>
+        <v>0.06201758306707238</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -7809,19 +7809,19 @@
         <v>35686</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27782</v>
+        <v>26305</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>48274</v>
+        <v>45925</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03867137836608141</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03010691962591636</v>
+        <v>0.02850606529818479</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05231242441416549</v>
+        <v>0.04976743626250971</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>84</v>
@@ -7830,19 +7830,19 @@
         <v>65006</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51649</v>
+        <v>53215</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79513</v>
+        <v>80834</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04031277553865957</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03202926100268007</v>
+        <v>0.03300060220250997</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04930892622910262</v>
+        <v>0.05012833672231869</v>
       </c>
     </row>
     <row r="26">
@@ -7859,19 +7859,19 @@
         <v>617134</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>598288</v>
+        <v>598013</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>632489</v>
+        <v>633322</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8947120077095116</v>
+        <v>0.8947120077095119</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8673896659736151</v>
+        <v>0.8669914382557626</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9169729633562422</v>
+        <v>0.9181812794083698</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1214</v>
@@ -7880,19 +7880,19 @@
         <v>829676</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>813012</v>
+        <v>812566</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>843415</v>
+        <v>845430</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8990922767206567</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8810342954581526</v>
+        <v>0.8805510751374853</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9139811721955142</v>
+        <v>0.9161642453608845</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1858</v>
@@ -7901,19 +7901,19 @@
         <v>1446810</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1419857</v>
+        <v>1421893</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1467538</v>
+        <v>1469674</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8972186480229797</v>
+        <v>0.89721864802298</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.880503865311003</v>
+        <v>0.8817665118192038</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9100729200859227</v>
+        <v>0.91139761520902</v>
       </c>
     </row>
     <row r="27">
